--- a/DataExtractor/notebooks/Demos/test_articles/test.xlsx
+++ b/DataExtractor/notebooks/Demos/test_articles/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtz93\OneDrive\Desktop\DataExtractor\DataExtractor\notebooks\Demos\test_articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D50297-1229-4AA5-9989-038AE7173B5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A16202-9D46-4B22-BD2B-873AAD5FB357}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Thickness</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Electron Mobility (cm2V-1s-1)</t>
+  </si>
+  <si>
+    <t>Tg</t>
+  </si>
+  <si>
+    <t>Annealing Temperature</t>
+  </si>
+  <si>
+    <t>Annealing Time</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,10 +456,13 @@
     <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="21" max="21" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -511,8 +523,17 @@
       <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -523,7 +544,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -542,37 +563,37 @@
         <v>2.81E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>

--- a/DataExtractor/notebooks/Demos/test_articles/test.xlsx
+++ b/DataExtractor/notebooks/Demos/test_articles/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtz93\OneDrive\Desktop\DataExtractor\DataExtractor\notebooks\Demos\test_articles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\OPVProject\DataExtractor\DataExtractor\notebooks\Demos\test_articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A16202-9D46-4B22-BD2B-873AAD5FB357}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4896EC-773F-464A-B1B3-517D3F83AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Thickness</t>
   </si>
@@ -106,14 +106,34 @@
   </si>
   <si>
     <t>Annealing Time</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Blend Ratio</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,12 +161,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,111 +461,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -543,8 +580,9 @@
       <c r="C2" s="2">
         <v>5.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -554,48 +592,74 @@
       <c r="C3" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <f>7.06*10^(-2)</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <f>2.81*10^(-4)</f>
         <v>2.81E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.57599999999999996</v>
       </c>
     </row>
   </sheetData>
